--- a/results/mp/logistic/corona/confidence/126/desired-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/desired-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,247 +43,265 @@
     <t>war</t>
   </si>
   <si>
-    <t>death</t>
+    <t>crude</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>recession</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
+    <t>cut</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>sharing</t>
   </si>
   <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>funny</t>
   </si>
   <si>
     <t>growth</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>helpful</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>shares</t>
+    <t>team</t>
   </si>
   <si>
     <t>boost</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>helping</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -641,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q63"/>
+  <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -649,10 +667,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,28 +728,28 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C3">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D3">
-        <v>33</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -760,13 +778,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +796,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -810,13 +828,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8424657534246576</v>
+        <v>0.8493150684931506</v>
       </c>
       <c r="C5">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D5">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +846,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K5">
-        <v>0.9416666666666667</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +878,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -881,16 +899,16 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +928,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8108108108108109</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -931,16 +949,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K7">
-        <v>0.9375</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -960,13 +978,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,31 +996,31 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L8">
+        <v>55</v>
+      </c>
+      <c r="M8">
+        <v>55</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>4</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8">
-        <v>0.9333333333333333</v>
-      </c>
-      <c r="L8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1028,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7777777777777778</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1031,16 +1049,16 @@
         <v>8</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>0.9322033898305084</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1078,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7586206896551724</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K10">
-        <v>0.9112271540469974</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L10">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1128,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7391304347826086</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1146,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1178,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7307692307692307</v>
+        <v>0.64</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,19 +1196,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.90625</v>
+        <v>0.8981723237597912</v>
       </c>
       <c r="L12">
-        <v>116</v>
+        <v>344</v>
       </c>
       <c r="M12">
-        <v>116</v>
+        <v>344</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.68</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,19 +1246,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.8947368421052632</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L13">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="M13">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1252,7 +1270,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1278,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6333333333333333</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K14">
-        <v>0.8943661971830986</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L14">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1328,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5608465608465608</v>
+        <v>0.4901960784313725</v>
       </c>
       <c r="C15">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="D15">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,19 +1346,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>0.8888888888888888</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L15">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="M15">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1378,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4745762711864407</v>
+        <v>0.4806201550387597</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,19 +1396,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>31</v>
+        <v>268</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="K16">
-        <v>0.8867924528301887</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L16">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M16">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1402,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1428,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4631782945736434</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C17">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1446,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>277</v>
+        <v>18</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>0.8846153846153846</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L17">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4313725490196079</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1478,19 +1496,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K18">
-        <v>0.8839285714285714</v>
+        <v>0.8828125</v>
       </c>
       <c r="L18">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="M18">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1502,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1528,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3272727272727273</v>
+        <v>0.302013422818792</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>0.8837209302325582</v>
+        <v>0.875</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1552,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1578,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3066666666666666</v>
+        <v>0.28</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,19 +1596,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K20">
-        <v>0.88125</v>
+        <v>0.86875</v>
       </c>
       <c r="L20">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M20">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1602,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,13 +1628,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2416107382550336</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1628,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K21">
-        <v>0.8723404255319149</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1652,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,13 +1678,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1361111111111111</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1678,19 +1696,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K22">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L22">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1702,125 +1720,221 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.0992063492063492</v>
+      </c>
+      <c r="C23">
+        <v>25</v>
+      </c>
+      <c r="D23">
+        <v>25</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>227</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K23">
-        <v>0.8611111111111112</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L23">
+        <v>70</v>
+      </c>
+      <c r="M23">
+        <v>70</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.006121134020618557</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>0.14</v>
+      </c>
+      <c r="F24">
+        <v>0.86</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3085</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K24">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="L24">
+        <v>40</v>
+      </c>
+      <c r="M24">
+        <v>40</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.005637467476149176</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>16</v>
+      </c>
+      <c r="E25">
+        <v>0.19</v>
+      </c>
+      <c r="F25">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2293</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
+      <c r="M25">
+        <v>22</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M23">
-        <v>31</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K24">
-        <v>0.8536585365853658</v>
-      </c>
-      <c r="L24">
-        <v>70</v>
-      </c>
-      <c r="M24">
-        <v>70</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
+      <c r="B26">
+        <v>0.003473026163463765</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>0.38</v>
+      </c>
+      <c r="F26">
+        <v>0.62</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>4304</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26">
+        <v>0.8095238095238095</v>
+      </c>
+      <c r="L26">
+        <v>51</v>
+      </c>
+      <c r="M26">
+        <v>51</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
         <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25">
-        <v>0.8461538461538461</v>
-      </c>
-      <c r="L25">
-        <v>33</v>
-      </c>
-      <c r="M25">
-        <v>33</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L26">
-        <v>14</v>
-      </c>
-      <c r="M26">
-        <v>14</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>0.8148148148148148</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1832,21 +1946,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K28">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1858,12 +1972,12 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K29">
         <v>0.7857142857142857</v>
@@ -1889,16 +2003,16 @@
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.7777777777777778</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L30">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1910,21 +2024,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K31">
-        <v>0.775</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1936,21 +2050,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K32">
-        <v>0.7714285714285715</v>
+        <v>0.75</v>
       </c>
       <c r="L32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1962,47 +2076,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K33">
-        <v>0.7647058823529411</v>
+        <v>0.74</v>
       </c>
       <c r="L33">
+        <v>37</v>
+      </c>
+      <c r="M33">
+        <v>37</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>13</v>
-      </c>
-      <c r="M33">
-        <v>13</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>4</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K34">
-        <v>0.76</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2014,21 +2128,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L35">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M35">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2040,21 +2154,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K36">
-        <v>0.75</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L36">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="M36">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2066,21 +2180,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K37">
-        <v>0.7368421052631579</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L37">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2092,21 +2206,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K38">
-        <v>0.7352941176470589</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>250</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2118,21 +2232,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K39">
-        <v>0.7272727272727273</v>
+        <v>0.7108843537414966</v>
       </c>
       <c r="L39">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="M39">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2141,24 +2255,24 @@
         <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>6</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K40">
-        <v>0.7238493723849372</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L40">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="M40">
-        <v>173</v>
+        <v>64</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2170,21 +2284,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K41">
-        <v>0.7220338983050848</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L41">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>213</v>
+        <v>18</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2196,21 +2310,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K42">
-        <v>0.7083333333333334</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L42">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="M42">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2222,21 +2336,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K43">
-        <v>0.7037037037037037</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L43">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="M43">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2248,21 +2362,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K44">
-        <v>0.7021276595744681</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L44">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="M44">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2274,21 +2388,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K45">
-        <v>0.6842105263157895</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L45">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M45">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2300,21 +2414,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K46">
-        <v>0.6461538461538462</v>
+        <v>0.625</v>
       </c>
       <c r="L46">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2326,21 +2440,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K47">
-        <v>0.6363636363636364</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L47">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="M47">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2352,21 +2466,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K48">
-        <v>0.6285714285714286</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L48">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2378,21 +2492,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K49">
-        <v>0.625</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L49">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M49">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2404,21 +2518,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K50">
-        <v>0.6190476190476191</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L50">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M50">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2430,21 +2544,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K51">
-        <v>0.6086956521739131</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2456,21 +2570,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K52">
-        <v>0.5842696629213483</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L52">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="M52">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2482,21 +2596,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K53">
-        <v>0.5652173913043478</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2508,21 +2622,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>10</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K54">
-        <v>0.5333333333333333</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2534,21 +2648,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K55">
-        <v>0.5294117647058824</v>
+        <v>0.5</v>
       </c>
       <c r="L55">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M55">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2560,21 +2674,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K56">
-        <v>0.5185185185185185</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L56">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="M56">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2586,21 +2700,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K57">
-        <v>0.5</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L57">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M57">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2612,21 +2726,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K58">
-        <v>0.5</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L58">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M58">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2638,21 +2752,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K59">
-        <v>0.4871794871794872</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L59">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2664,21 +2778,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="K60">
-        <v>0.4383561643835616</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L60">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="M60">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2690,21 +2804,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K61">
-        <v>0.3220338983050847</v>
+        <v>0.265625</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2716,59 +2830,111 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K62">
-        <v>0.003297129557796742</v>
+        <v>0.005622188905547227</v>
       </c>
       <c r="L62">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N62">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="O62">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>5139</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K63">
-        <v>0.002806173581880136</v>
+        <v>0.005325686194182712</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N63">
-        <v>0.67</v>
+        <v>0.76</v>
       </c>
       <c r="O63">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="P63" t="b">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>4975</v>
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K64">
+        <v>0.003809141940657578</v>
+      </c>
+      <c r="L64">
+        <v>19</v>
+      </c>
+      <c r="M64">
+        <v>27</v>
+      </c>
+      <c r="N64">
+        <v>0.7</v>
+      </c>
+      <c r="O64">
+        <v>0.3</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64">
+        <v>4969</v>
+      </c>
+    </row>
+    <row r="65" spans="10:17">
+      <c r="J65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65">
+        <v>0.003104384943733023</v>
+      </c>
+      <c r="L65">
+        <v>16</v>
+      </c>
+      <c r="M65">
+        <v>27</v>
+      </c>
+      <c r="N65">
+        <v>0.59</v>
+      </c>
+      <c r="O65">
+        <v>0.41</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65">
+        <v>5138</v>
       </c>
     </row>
   </sheetData>
